--- a/biology/Botanique/Acalypha_australis/Acalypha_australis.xlsx
+++ b/biology/Botanique/Acalypha_australis/Acalypha_australis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acalypha australis (la ricinelle australe) est une espèce de plantes à fleurs dicotylédones de la famille des Euphorbiaceae, originaire d'Asie orientale.
 C'est une plante herbacée annuelle qui est souvent une mauvaise herbe des cultures.
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acalypha australis est une plante herbacée annuelle, à la tige dressée, striée et fortement ramifiée, pouvant atteindre de 20 à 50 cm de haut.
 Les feuilles, alternes, de 3 à 9 cm de long sur 1 à 5 cm de large, ont un limbe de forme oblongue à lancéolée aux bords finement serrés, et présentant trois nervures principales. Elles sont portées par un pétiole de 2 à 6 cm de long, et sont munies à la base de stipules lancéolées de 1,5 à 2 mm de long.
 Les fleurs sont regroupées en épis axillaires (parfois terminaux), formant des inflorescences non ramifiées de 15 à 50 mm de long.
 Chaque inflorescence, insérée en position axillaire de petites bractées lancéolées, compte de 1 à 3 fleurs femelles à la partie supérieure de l'inflorescence, et de 5 à 7 fleurs mâles à la partie inférieure. Les fleurs femelles ont trois minces sépales papyracés, contre quatre chez les fleurs mâles. La corolle est absente.
-Les graines lisses, de forme subovoïde et de couleur brun clair, mesurent de 1,5 à 2 mm de long. Le poids de 1000 graines est de 2 g seulement[2],[3].
-La floraison intervient d'avril à décembre (dans l'hémisphère nord)[2].
+Les graines lisses, de forme subovoïde et de couleur brun clair, mesurent de 1,5 à 2 mm de long. Le poids de 1000 graines est de 2 g seulement,.
+La floraison intervient d'avril à décembre (dans l'hémisphère nord).
 </t>
         </is>
       </c>
@@ -548,13 +562,15 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle d'Acalypha australis comprend toute la Chine, à l'exception des provinces de Mongolie-Intérieure et du Xinjiang, ainsi que des régions du Japon, de Corée, du Laos, des Philippines, de Russie orientale et du Viêt Nam[2].
-L'espèce a été introduite, depuis 2010, dans le Nord de l'Australie (du Queensland au Victoria) et dans l'Est de l'Inde[2],[4].
-L'espèce a également été introduite dans diverses autres régions d'Eurasie, notamment dans la région du Caucase, en Arménie, en Turquie, en Ukraine et en Italie[5].
-Dans le continent américain, elle n'a été signalée que dans l'État de New York, depuis 1990, mais ne semble pas s'être implantée ailleurs[6],[7],[5].
-Dans son aire originelle, Acalypha australis croît dans les prairies et les terres cultivées à des altitudes comprises entre 100 et 1 200 m (exceptionnellement jusqu'à 1 900 m)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle d'Acalypha australis comprend toute la Chine, à l'exception des provinces de Mongolie-Intérieure et du Xinjiang, ainsi que des régions du Japon, de Corée, du Laos, des Philippines, de Russie orientale et du Viêt Nam.
+L'espèce a été introduite, depuis 2010, dans le Nord de l'Australie (du Queensland au Victoria) et dans l'Est de l'Inde,.
+L'espèce a également été introduite dans diverses autres régions d'Eurasie, notamment dans la région du Caucase, en Arménie, en Turquie, en Ukraine et en Italie.
+Dans le continent américain, elle n'a été signalée que dans l'État de New York, depuis 1990, mais ne semble pas s'être implantée ailleurs.
+Dans son aire originelle, Acalypha australis croît dans les prairies et les terres cultivées à des altitudes comprises entre 100 et 1 200 m (exceptionnellement jusqu'à 1 900 m).
 </t>
         </is>
       </c>
@@ -585,11 +601,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Étymologie
-Le nom générique, Acalypha, dérive du grec ancien akalephes (« ortie »), en référence à ses feuilles qui ressemblent à celles de l'ortie[8].
-L'épithète spécifique, australis, est un terme latin qui signifie « austral »[9].
-Synonymes
-Selon Catalogue of Life                                   (14 mai 2016)[10] : 	
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Acalypha, dérive du grec ancien akalephes (« ortie »), en référence à ses feuilles qui ressemblent à celles de l'ortie.
+L'épithète spécifique, australis, est un terme latin qui signifie « austral ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acalypha_australis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acalypha_australis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (14 mai 2016) : 	
 Acalypha australis f. glareosa (Rupr.) H.Hara,
 Acalypha australis var. glareosa (Rupr.) Nakai,
 Acalypha australis f. lanceolata (Hayata) Hurus.,
@@ -609,73 +665,112 @@
 Acalypha virgata Thunb.,
 Meterana dimidiata Raf.,
 Ricinocarpus australis (L.) Kuntze.
-Liste des variétés
-Selon Tropicos                                           (14 mai 2016)[11] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acalypha_australis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acalypha_australis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (14 mai 2016) (Attention liste brute contenant possiblement des synonymes) :
 variété Acalypha australis var. glareosa (Rupr.) Nakai
 variété Acalypha australis var. lanceolata Hayata
 variété Acalypha australis var. velutina Honda</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Acalypha_australis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Acalypha_australis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors d'une étude chinoise de 2008, onze composés chimiques ont été extraits des parties aériennes d'Acalypha australis. Il s'agit notamment de l'émodine, du loliolide, du 2,6-diméthoxy-1,4-benzoquinone, de l'acide succinique et de la brévifoline[12].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors d'une étude chinoise de 2008, onze composés chimiques ont été extraits des parties aériennes d'Acalypha australis. Il s'agit notamment de l'émodine, du loliolide, du 2,6-diméthoxy-1,4-benzoquinone, de l'acide succinique et de la brévifoline.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Acalypha_australis</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Acalypha_australis</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Plante médicinale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Prosea (Plant ressources of South-East Asia, Ressources végétales d'Asie du Sud-Est), la plante entière serait utilisée en Asie du Sud-Est pour soigner la dysenterie, la diarrhée, les écrouelles, la dermatite, les saignements de nez, l'hémoptysie, ainsi que pour arrêter la toux et guérir les pieds enflés.
-Les feuilles seraient utilisées en cataplasmes contre les morsures de serpent[13],[5].
+Les feuilles seraient utilisées en cataplasmes contre les morsures de serpent,.
 </t>
         </is>
       </c>
